--- a/data/trans_orig/P36B17-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36B17-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>172219</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>151935</v>
+        <v>149601</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>196192</v>
+        <v>194835</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3127739881747296</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.275934945893233</v>
+        <v>0.2716968917991359</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3563118348196591</v>
+        <v>0.3538472887863601</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>231</v>
@@ -762,19 +762,19 @@
         <v>155664</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>138855</v>
+        <v>139375</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>171926</v>
+        <v>174108</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3193026636998239</v>
+        <v>0.3193026636998238</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2848237472100002</v>
+        <v>0.285889165264301</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3526587723223265</v>
+        <v>0.3571347905346237</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>418</v>
@@ -783,19 +783,19 @@
         <v>327883</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>300884</v>
+        <v>300698</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>357051</v>
+        <v>354811</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3158398958541773</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.289832020825426</v>
+        <v>0.2896535166909858</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3439362141702502</v>
+        <v>0.341778717169004</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>180118</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>159964</v>
+        <v>158479</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>202570</v>
+        <v>202606</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.327119771292013</v>
+        <v>0.3271197712920131</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.290516898518206</v>
+        <v>0.2878195196605584</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3678952534304787</v>
+        <v>0.3679610063715064</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>269</v>
@@ -833,19 +833,19 @@
         <v>192062</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>172305</v>
+        <v>173904</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>212713</v>
+        <v>210780</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.3939627947306684</v>
+        <v>0.3939627947306683</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3534364512133815</v>
+        <v>0.3567158880492417</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4363224063950443</v>
+        <v>0.4323582425340414</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>455</v>
@@ -854,19 +854,19 @@
         <v>372180</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>344500</v>
+        <v>341623</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>402655</v>
+        <v>402290</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3585096815564105</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.331845906887893</v>
+        <v>0.3290747285096932</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3878655873522701</v>
+        <v>0.3875135358774341</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>156893</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>134835</v>
+        <v>133769</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>181092</v>
+        <v>181820</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2849404703583878</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2448787183093171</v>
+        <v>0.2429432667641045</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3288890246708136</v>
+        <v>0.3302101913812552</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>171</v>
@@ -904,19 +904,19 @@
         <v>129991</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>113262</v>
+        <v>112491</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>149411</v>
+        <v>148204</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2666404726768431</v>
+        <v>0.266640472676843</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2323262109757575</v>
+        <v>0.2307455466883549</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3064750713846849</v>
+        <v>0.3040011032680542</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>315</v>
@@ -925,19 +925,19 @@
         <v>286884</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>257801</v>
+        <v>259413</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>314217</v>
+        <v>317916</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2763466746933914</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2483321403543642</v>
+        <v>0.2498842629815641</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3026761026564106</v>
+        <v>0.3062391881530195</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>33583</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23155</v>
+        <v>22340</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46670</v>
+        <v>46472</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.06099124799153233</v>
+        <v>0.06099124799153234</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04205241726250754</v>
+        <v>0.04057219640152613</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08475927609961435</v>
+        <v>0.08439915166367537</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -975,19 +975,19 @@
         <v>6680</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3369</v>
+        <v>3429</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12205</v>
+        <v>12527</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.01370132500605875</v>
+        <v>0.01370132500605874</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006909648272072019</v>
+        <v>0.007033186032750721</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02503608661492775</v>
+        <v>0.02569654118094228</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>40</v>
@@ -996,19 +996,19 @@
         <v>40262</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>29699</v>
+        <v>29197</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>57489</v>
+        <v>56600</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.03878359844847117</v>
+        <v>0.03878359844847118</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02860852888045929</v>
+        <v>0.02812495631979929</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05537786081789774</v>
+        <v>0.05452136579204354</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>7805</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3424</v>
+        <v>3328</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14913</v>
+        <v>14961</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.01417452218333723</v>
+        <v>0.01417452218333724</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.006217569765521428</v>
+        <v>0.006044248024844781</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0270848872754684</v>
+        <v>0.0271718572455341</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -1046,19 +1046,19 @@
         <v>3117</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>714</v>
+        <v>808</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7843</v>
+        <v>7824</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.006392743886606038</v>
+        <v>0.006392743886606036</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.001464721971998069</v>
+        <v>0.001658386979010479</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01608754190096227</v>
+        <v>0.01604918254339201</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>10921</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5467</v>
+        <v>5395</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>19906</v>
+        <v>18796</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01052014944754972</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.005266625694127075</v>
+        <v>0.005197201736397061</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01917523355243324</v>
+        <v>0.01810583011903292</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>127745</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>109928</v>
+        <v>107291</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>146614</v>
+        <v>147565</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2657027835086875</v>
+        <v>0.2657027835086874</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2286446591235753</v>
+        <v>0.2231601331095778</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3049497388330081</v>
+        <v>0.3069285466656814</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>183</v>
@@ -1192,19 +1192,19 @@
         <v>123920</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>107877</v>
+        <v>109017</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>141067</v>
+        <v>142097</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2928555475772341</v>
+        <v>0.2928555475772342</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2549411651337007</v>
+        <v>0.2576369869135774</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3333792580281471</v>
+        <v>0.3358141093375192</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>321</v>
@@ -1213,19 +1213,19 @@
         <v>251664</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>227688</v>
+        <v>228379</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>278175</v>
+        <v>279157</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2784134785304429</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2518886372909713</v>
+        <v>0.2526532842991047</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3077417696658126</v>
+        <v>0.3088287608980728</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>172078</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>150347</v>
+        <v>149758</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>192729</v>
+        <v>195400</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3579127210895914</v>
+        <v>0.3579127210895913</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3127148961862825</v>
+        <v>0.311489433884392</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4008658255830195</v>
+        <v>0.4064223858812874</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>225</v>
@@ -1263,19 +1263,19 @@
         <v>160258</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>141875</v>
+        <v>143073</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>177830</v>
+        <v>177457</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3787318369449809</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3352892769600186</v>
+        <v>0.3381193690898004</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4202600014598061</v>
+        <v>0.4193783662493498</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>398</v>
@@ -1284,19 +1284,19 @@
         <v>332335</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>300512</v>
+        <v>303793</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>358993</v>
+        <v>361072</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3676585219808896</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3324526393009376</v>
+        <v>0.3360823115104722</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3971502372862964</v>
+        <v>0.3994503838140561</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>152132</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>132340</v>
+        <v>130290</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>173140</v>
+        <v>174267</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3164260130457456</v>
+        <v>0.3164260130457455</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2752608184671967</v>
+        <v>0.2709960432916997</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3601228811654032</v>
+        <v>0.3624661995116908</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>146</v>
@@ -1334,19 +1334,19 @@
         <v>109434</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>94753</v>
+        <v>93899</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>126066</v>
+        <v>126413</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2586215612435867</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2239257292863567</v>
+        <v>0.221907682562711</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2979286661083361</v>
+        <v>0.2987474456425483</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>290</v>
@@ -1355,19 +1355,19 @@
         <v>261565</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>236977</v>
+        <v>235507</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>288659</v>
+        <v>291777</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2893667141875454</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2621655181975257</v>
+        <v>0.2605389583087557</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3193402202232786</v>
+        <v>0.3227896597167938</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>19948</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11580</v>
+        <v>11773</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31557</v>
+        <v>32987</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.04148992446759655</v>
+        <v>0.04148992446759654</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02408506604431474</v>
+        <v>0.02448793731495165</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06563645707953718</v>
+        <v>0.06861041413078602</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -1405,19 +1405,19 @@
         <v>24578</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16879</v>
+        <v>16640</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35137</v>
+        <v>34738</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05808415394863881</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03988976091099035</v>
+        <v>0.03932414653045141</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08303911181791908</v>
+        <v>0.082095287622585</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>46</v>
@@ -1426,19 +1426,19 @@
         <v>44525</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>32165</v>
+        <v>32675</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>59245</v>
+        <v>59947</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04925798040186816</v>
+        <v>0.04925798040186817</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03558384045538465</v>
+        <v>0.03614803760024476</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06554194018751294</v>
+        <v>0.06631822590185775</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>8879</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3741</v>
+        <v>4343</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16710</v>
+        <v>16768</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01846855788837901</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.007780627384777837</v>
+        <v>0.009033768471515885</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03475665052310331</v>
+        <v>0.03487699657809959</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -1476,19 +1476,19 @@
         <v>4954</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1819</v>
+        <v>1945</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11216</v>
+        <v>9945</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01170690028555931</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.004298384968097816</v>
+        <v>0.004596874541528391</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02650646527074936</v>
+        <v>0.02350155928078638</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>14</v>
@@ -1497,19 +1497,19 @@
         <v>13833</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7938</v>
+        <v>7183</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>23011</v>
+        <v>22184</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01530330489925394</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008781199097858482</v>
+        <v>0.007946574525331774</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02545689947060994</v>
+        <v>0.0245423595113923</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>117929</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>100603</v>
+        <v>99536</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>137912</v>
+        <v>137075</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2500556269991938</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2133177157313776</v>
+        <v>0.2110551044351645</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2924278434349465</v>
+        <v>0.2906517037981617</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>93</v>
@@ -1622,19 +1622,19 @@
         <v>58047</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>47696</v>
+        <v>48593</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>68617</v>
+        <v>69331</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3104570301257026</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2550933798188803</v>
+        <v>0.2598950184512966</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3669871848658707</v>
+        <v>0.3708060568895816</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>231</v>
@@ -1643,19 +1643,19 @@
         <v>175976</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>154826</v>
+        <v>153885</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>198150</v>
+        <v>198095</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2672036425599641</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2350888437940987</v>
+        <v>0.2336610488855179</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3008725454958445</v>
+        <v>0.3007897304688789</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>167996</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>147441</v>
+        <v>149111</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>186824</v>
+        <v>189730</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3562168421002734</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3126321772240395</v>
+        <v>0.3161738409688477</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3961387085208149</v>
+        <v>0.4023002329566921</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>102</v>
@@ -1693,19 +1693,19 @@
         <v>66651</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>55734</v>
+        <v>55649</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>77846</v>
+        <v>78073</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3564742906089554</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2980839813942914</v>
+        <v>0.2976302090797884</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4163505769675122</v>
+        <v>0.4175604190190599</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>282</v>
@@ -1714,19 +1714,19 @@
         <v>234647</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>212205</v>
+        <v>209251</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>258801</v>
+        <v>257722</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.3562899319757474</v>
+        <v>0.3562899319757475</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3222141254748723</v>
+        <v>0.3177290487565929</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3929665336815254</v>
+        <v>0.3913281694774877</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>158579</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>138283</v>
+        <v>137865</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>182163</v>
+        <v>180842</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3362486198333005</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2932127306153539</v>
+        <v>0.2923267899597786</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3862566070740222</v>
+        <v>0.3834548743563538</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>80</v>
@@ -1764,19 +1764,19 @@
         <v>53588</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>44260</v>
+        <v>43329</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>64254</v>
+        <v>63899</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2866097238448058</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2367212309282505</v>
+        <v>0.2317395617871482</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.343654434003533</v>
+        <v>0.3417549177800531</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>221</v>
@@ -1785,19 +1785,19 @@
         <v>212167</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>189130</v>
+        <v>187599</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>237842</v>
+        <v>236809</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3221560902434277</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2871766491729557</v>
+        <v>0.2848526954062822</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3611415615493438</v>
+        <v>0.359573357926873</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>19409</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12050</v>
+        <v>12481</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29681</v>
+        <v>29836</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.04115555985942099</v>
+        <v>0.04115555985942098</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02555167746449695</v>
+        <v>0.02646507577289093</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06293446998259215</v>
+        <v>0.063264770674506</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -1835,19 +1835,19 @@
         <v>5243</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2227</v>
+        <v>2372</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9757</v>
+        <v>10143</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02804228275163511</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01190946614922784</v>
+        <v>0.01268817681513327</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05218451169397421</v>
+        <v>0.05424591377966719</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>29</v>
@@ -1856,19 +1856,19 @@
         <v>24653</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>16363</v>
+        <v>16279</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34460</v>
+        <v>35687</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03743268806741925</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02484586678889811</v>
+        <v>0.02471764765884954</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05232420807693468</v>
+        <v>0.05418741690308608</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>7698</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3359</v>
+        <v>3161</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15137</v>
+        <v>15096</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01632335120781133</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.007122990139141703</v>
+        <v>0.006701593693726382</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03209591354613008</v>
+        <v>0.03200983211848621</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -1906,19 +1906,19 @@
         <v>3443</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1296</v>
+        <v>1304</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7230</v>
+        <v>7806</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01841667266890098</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.00693289852835373</v>
+        <v>0.006976567872410203</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03866915747597428</v>
+        <v>0.04174685399190922</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>13</v>
@@ -1927,19 +1927,19 @@
         <v>11142</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5991</v>
+        <v>6182</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>19461</v>
+        <v>18276</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01691764715344153</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.009096538112316413</v>
+        <v>0.009387465666479996</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0295504301937983</v>
+        <v>0.02774999249478523</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>283164</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>254324</v>
+        <v>253458</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>315300</v>
+        <v>316391</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2501793242998812</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2246993294262532</v>
+        <v>0.2239336559877914</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2785722412248409</v>
+        <v>0.2795359899399471</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>336</v>
@@ -2052,19 +2052,19 @@
         <v>216135</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>196265</v>
+        <v>191970</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>238619</v>
+        <v>236730</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2521420808937414</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2289612246931707</v>
+        <v>0.2239510125309089</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2783719620960557</v>
+        <v>0.2761679293257723</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>656</v>
@@ -2073,19 +2073,19 @@
         <v>499299</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>462671</v>
+        <v>464513</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>540930</v>
+        <v>535724</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2510251939214356</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2326102847556844</v>
+        <v>0.2335363645328872</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.271955320450179</v>
+        <v>0.2693381068812393</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>341635</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>309274</v>
+        <v>310872</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>373020</v>
+        <v>376749</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3018399529946936</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2732482278962597</v>
+        <v>0.2746599231736387</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3295688079145496</v>
+        <v>0.3328628991467594</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>456</v>
@@ -2123,19 +2123,19 @@
         <v>304623</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>281894</v>
+        <v>282797</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>329891</v>
+        <v>327655</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.3553716881733109</v>
+        <v>0.3553716881733111</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3288564463742626</v>
+        <v>0.3299096421322306</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.38484909134838</v>
+        <v>0.3822400217056676</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>802</v>
@@ -2144,19 +2144,19 @@
         <v>646259</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>608957</v>
+        <v>604023</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>686764</v>
+        <v>683953</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3249099906745241</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.306156433458823</v>
+        <v>0.3036759176924597</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.345274441518852</v>
+        <v>0.3438609042415087</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>386368</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>349746</v>
+        <v>352484</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>421630</v>
+        <v>423363</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3413614153941016</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3090061000673422</v>
+        <v>0.3114249218800973</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3725161374146446</v>
+        <v>0.3740476217320013</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>356</v>
@@ -2194,19 +2194,19 @@
         <v>271139</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>248891</v>
+        <v>248185</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>296353</v>
+        <v>297323</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.3163095557043367</v>
+        <v>0.3163095557043368</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2903548872916543</v>
+        <v>0.289531736354125</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3457241972358128</v>
+        <v>0.3468554247940362</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>708</v>
@@ -2215,19 +2215,19 @@
         <v>657507</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>615274</v>
+        <v>614539</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>700651</v>
+        <v>697841</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.3305650654333861</v>
+        <v>0.330565065433386</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3093321275932365</v>
+        <v>0.3089629934179709</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3522558149182312</v>
+        <v>0.3508435303390597</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>91273</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>71092</v>
+        <v>69427</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>117391</v>
+        <v>113289</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.08064082065651401</v>
+        <v>0.08064082065651403</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0628104355737821</v>
+        <v>0.06133994444315222</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1037168684472307</v>
+        <v>0.1000922539298763</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>63</v>
@@ -2265,19 +2265,19 @@
         <v>53958</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>41251</v>
+        <v>41482</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>69322</v>
+        <v>68162</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.06294663063016022</v>
+        <v>0.06294663063016025</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04812272039287688</v>
+        <v>0.04839215485342221</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08087046011492423</v>
+        <v>0.07951710329133432</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>138</v>
@@ -2286,19 +2286,19 @@
         <v>145230</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>121073</v>
+        <v>121841</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>173079</v>
+        <v>173902</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07301533216337966</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06087030940231937</v>
+        <v>0.06125644854366619</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08701627438329748</v>
+        <v>0.08743019333122858</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>29404</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>18572</v>
+        <v>19875</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>46331</v>
+        <v>43196</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02597848665480956</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0164082080299563</v>
+        <v>0.01755999060352502</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04093390283750312</v>
+        <v>0.03816424164893549</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>13</v>
@@ -2336,19 +2336,19 @@
         <v>11341</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5792</v>
+        <v>6380</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>20055</v>
+        <v>21663</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01323004459845068</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.006756397588675387</v>
+        <v>0.007442321699202283</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0233962543783109</v>
+        <v>0.0252714556185285</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>38</v>
@@ -2357,19 +2357,19 @@
         <v>40744</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>27907</v>
+        <v>29421</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>56561</v>
+        <v>59329</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.02048441780727457</v>
+        <v>0.02048441780727456</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01403026259987107</v>
+        <v>0.01479156625235294</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02843632424674987</v>
+        <v>0.02982793924109498</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>140031</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>120013</v>
+        <v>117932</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>162383</v>
+        <v>162802</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.2470456846035438</v>
+        <v>0.2470456846035437</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2117295413408226</v>
+        <v>0.208058244704226</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2864792151321962</v>
+        <v>0.2872196421485183</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>447</v>
@@ -2482,19 +2482,19 @@
         <v>258327</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>236801</v>
+        <v>237615</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>279095</v>
+        <v>279061</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.3123592591072901</v>
+        <v>0.3123592591072902</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.286331219203354</v>
+        <v>0.2873157664983909</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3374715306632795</v>
+        <v>0.3374307554925961</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>605</v>
@@ -2503,19 +2503,19 @@
         <v>398358</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>367929</v>
+        <v>369944</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>426791</v>
+        <v>430777</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2857987131848261</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2639675827933164</v>
+        <v>0.2654136752310503</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3061976965934632</v>
+        <v>0.3090578237834922</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>176495</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>152348</v>
+        <v>150900</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>204514</v>
+        <v>198170</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3113769257945689</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2687759717282722</v>
+        <v>0.2662207667593922</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3608079416674612</v>
+        <v>0.3496166063022315</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>418</v>
@@ -2553,19 +2553,19 @@
         <v>265114</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>244920</v>
+        <v>243163</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>286994</v>
+        <v>287664</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3205661678826113</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.296148246337491</v>
+        <v>0.2940239549018939</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3470230304013946</v>
+        <v>0.3478325229239991</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>592</v>
@@ -2574,19 +2574,19 @@
         <v>441609</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>409429</v>
+        <v>411460</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>475692</v>
+        <v>474092</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3168292527263586</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2937420749395261</v>
+        <v>0.295198994049611</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3412815301344571</v>
+        <v>0.3401340570320933</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>178957</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>154341</v>
+        <v>155377</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>206009</v>
+        <v>204069</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3157191698777835</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2722918461894203</v>
+        <v>0.2741190815915584</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.363444989304553</v>
+        <v>0.3600233537750192</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>353</v>
@@ -2624,19 +2624,19 @@
         <v>252430</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>230746</v>
+        <v>231817</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>276143</v>
+        <v>276207</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3052295412555395</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2790090607998844</v>
+        <v>0.2803045109553122</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.333902360158963</v>
+        <v>0.333979419436738</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>506</v>
@@ -2645,19 +2645,19 @@
         <v>431387</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>396117</v>
+        <v>399651</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>463438</v>
+        <v>466430</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3094952741425785</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2841913820310462</v>
+        <v>0.2867269232402007</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3324901861993229</v>
+        <v>0.3346364641732844</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>53665</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>39533</v>
+        <v>38585</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>70915</v>
+        <v>73068</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.09467722216186468</v>
+        <v>0.09467722216186469</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.06974543888334137</v>
+        <v>0.06807231891097695</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1251104231226936</v>
+        <v>0.1289079218288983</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>49</v>
@@ -2695,19 +2695,19 @@
         <v>37521</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>27826</v>
+        <v>28041</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>50564</v>
+        <v>50847</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04536909415953704</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03364675606211266</v>
+        <v>0.03390593598882883</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06114062288521567</v>
+        <v>0.06148188073020391</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>94</v>
@@ -2716,19 +2716,19 @@
         <v>91186</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>73649</v>
+        <v>74259</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>111832</v>
+        <v>113001</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06542083391053531</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05283903943063595</v>
+        <v>0.05327679837878058</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08023333004683066</v>
+        <v>0.08107149502560236</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>17674</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>9756</v>
+        <v>9981</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>28944</v>
+        <v>28439</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03118099756223904</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01721173711088165</v>
+        <v>0.0176080463680163</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05106328751043494</v>
+        <v>0.05017239454741676</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>18</v>
@@ -2766,19 +2766,19 @@
         <v>13626</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>8326</v>
+        <v>8244</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>22273</v>
+        <v>21879</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0164759375950221</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01006761848294833</v>
+        <v>0.009968526368991598</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02693181845789469</v>
+        <v>0.026455181267926</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>33</v>
@@ -2787,19 +2787,19 @@
         <v>31300</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>21637</v>
+        <v>19762</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>45731</v>
+        <v>43262</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02245592603570145</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01552359769839894</v>
+        <v>0.01417809796605638</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03280907145839665</v>
+        <v>0.03103829271746587</v>
       </c>
     </row>
     <row r="33">
@@ -2891,19 +2891,19 @@
         <v>53107</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>35257</v>
+        <v>36110</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>73334</v>
+        <v>74316</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2238650246718236</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1486212774559958</v>
+        <v>0.1522171215955494</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.309129272243887</v>
+        <v>0.3132679106285287</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>413</v>
@@ -2912,19 +2912,19 @@
         <v>256696</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>233389</v>
+        <v>234837</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>284389</v>
+        <v>283530</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.3044945111895388</v>
+        <v>0.3044945111895387</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2768473865434086</v>
+        <v>0.2785645415122708</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3373435768870966</v>
+        <v>0.3363250574858911</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>442</v>
@@ -2933,19 +2933,19 @@
         <v>309804</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>277010</v>
+        <v>279376</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>341184</v>
+        <v>342411</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2867879699378875</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2564307372076925</v>
+        <v>0.2586210402988083</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3158374715882079</v>
+        <v>0.3169733065451681</v>
       </c>
     </row>
     <row r="35">
@@ -2962,19 +2962,19 @@
         <v>61147</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>43107</v>
+        <v>42082</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>84262</v>
+        <v>85185</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2577581110224902</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1817113379683422</v>
+        <v>0.1773889807936074</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3551947026966768</v>
+        <v>0.3590858608666159</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>419</v>
@@ -2983,19 +2983,19 @@
         <v>305338</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>277915</v>
+        <v>277966</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>328923</v>
+        <v>332303</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3621935880886873</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3296634276217397</v>
+        <v>0.3297248919926787</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.39016957704105</v>
+        <v>0.3941796249342103</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>449</v>
@@ -3004,19 +3004,19 @@
         <v>366486</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>329195</v>
+        <v>330893</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>399676</v>
+        <v>405162</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3392591609619288</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.304738583660513</v>
+        <v>0.3063105674115882</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3699841272737633</v>
+        <v>0.3750617215908058</v>
       </c>
     </row>
     <row r="36">
@@ -3033,19 +3033,19 @@
         <v>89090</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>67339</v>
+        <v>67537</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>114046</v>
+        <v>114181</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3755477207665667</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.283858866445682</v>
+        <v>0.2846905162098511</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.480744573677467</v>
+        <v>0.4813137449664996</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>267</v>
@@ -3054,19 +3054,19 @@
         <v>224227</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>199365</v>
+        <v>198397</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>251609</v>
+        <v>251473</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.2659785593970788</v>
+        <v>0.2659785593970787</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2364873157653227</v>
+        <v>0.2353394333300253</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2984594034914422</v>
+        <v>0.2982986249890981</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>307</v>
@@ -3075,19 +3075,19 @@
         <v>313317</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>278218</v>
+        <v>277836</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>351514</v>
+        <v>349058</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2900403630806657</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2575486018584462</v>
+        <v>0.2571954263126666</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3253998105298098</v>
+        <v>0.3231264579445901</v>
       </c>
     </row>
     <row r="37">
@@ -3104,19 +3104,19 @@
         <v>18600</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>6840</v>
+        <v>7110</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>44802</v>
+        <v>41290</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.07840484605569627</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02883414688319807</v>
+        <v>0.02997211076505438</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1888542784647738</v>
+        <v>0.1740509255494369</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>47</v>
@@ -3125,19 +3125,19 @@
         <v>45663</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>32932</v>
+        <v>33069</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>61970</v>
+        <v>63745</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.05416613539094901</v>
+        <v>0.05416613539094899</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03906416478533831</v>
+        <v>0.03922643430927501</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.07350937071705479</v>
+        <v>0.07561470487619139</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>53</v>
@@ -3146,19 +3146,19 @@
         <v>64263</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>46755</v>
+        <v>45704</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>90409</v>
+        <v>92199</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0594890482458869</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.04328110128624741</v>
+        <v>0.04230870639062249</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.08369204265690615</v>
+        <v>0.08534952260909219</v>
       </c>
     </row>
     <row r="38">
@@ -3175,19 +3175,19 @@
         <v>15283</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>6124</v>
+        <v>7318</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>29831</v>
+        <v>32249</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.06442429748342317</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.02581383342752989</v>
+        <v>0.03084745239438257</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1257497402547145</v>
+        <v>0.1359423427334841</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>11</v>
@@ -3196,19 +3196,19 @@
         <v>11100</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>5733</v>
+        <v>5632</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>21812</v>
+        <v>22411</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.01316720593374596</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.006800589187332464</v>
+        <v>0.006680978477863515</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.02587369064783974</v>
+        <v>0.02658422459303156</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>18</v>
@@ -3217,19 +3217,19 @@
         <v>26384</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>15721</v>
+        <v>15445</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>45913</v>
+        <v>46957</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.02442345777363111</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01455269183553866</v>
+        <v>0.014297480410576</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.04250197244904989</v>
+        <v>0.04346862823029187</v>
       </c>
     </row>
     <row r="39">
@@ -3321,19 +3321,19 @@
         <v>894195</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>840111</v>
+        <v>843940</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>951677</v>
+        <v>948151</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.2600231928226014</v>
+        <v>0.2600231928226013</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2442962557194006</v>
+        <v>0.2454097917167058</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2767386394337401</v>
+        <v>0.2757131755184761</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1703</v>
@@ -3342,19 +3342,19 @@
         <v>1068790</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1018045</v>
+        <v>1024583</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1117590</v>
+        <v>1120668</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.2948492042719894</v>
+        <v>0.2948492042719893</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2808502569213098</v>
+        <v>0.2826537825649549</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.30831178106924</v>
+        <v>0.3091608463901907</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2673</v>
@@ -3363,19 +3363,19 @@
         <v>1962984</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1889801</v>
+        <v>1888876</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>2040020</v>
+        <v>2039962</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.277894626005789</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2675342445830768</v>
+        <v>0.2674032820711943</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2888004048841065</v>
+        <v>0.2887922570983247</v>
       </c>
     </row>
     <row r="41">
@@ -3392,19 +3392,19 @@
         <v>1099470</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1040021</v>
+        <v>1041338</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1157073</v>
+        <v>1161097</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.3197152275309462</v>
+        <v>0.3197152275309461</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3024281123048183</v>
+        <v>0.3028111004156034</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.336465735886064</v>
+        <v>0.3376359382703553</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1889</v>
@@ -3413,19 +3413,19 @@
         <v>1294047</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1241686</v>
+        <v>1247584</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1351084</v>
+        <v>1347575</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3569912595215579</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.3425463867584236</v>
+        <v>0.3441735833918693</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3727262210002402</v>
+        <v>0.3717581815455448</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2978</v>
@@ -3434,19 +3434,19 @@
         <v>2393516</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2312790</v>
+        <v>2313079</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2471037</v>
+        <v>2474898</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.338843921496453</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.327415752338131</v>
+        <v>0.3274566253807458</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3498184567916965</v>
+        <v>0.3503649765194807</v>
       </c>
     </row>
     <row r="42">
@@ -3463,19 +3463,19 @@
         <v>1122018</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1060209</v>
+        <v>1058036</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1188340</v>
+        <v>1188453</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3262720805963994</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3082986310696943</v>
+        <v>0.3076666630366952</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.345557981123008</v>
+        <v>0.3455906171329077</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1373</v>
@@ -3484,19 +3484,19 @@
         <v>1040809</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>983355</v>
+        <v>990668</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1089001</v>
+        <v>1095160</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2871302017959891</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2712800979720005</v>
+        <v>0.2732975704339488</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3004249223574267</v>
+        <v>0.3021239970897329</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>2347</v>
@@ -3505,19 +3505,19 @@
         <v>2162827</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2087321</v>
+        <v>2083132</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>2243113</v>
+        <v>2244808</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3061859024056363</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2954966830869465</v>
+        <v>0.2949037073205704</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3175517033553174</v>
+        <v>0.3177917711533162</v>
       </c>
     </row>
     <row r="43">
@@ -3534,19 +3534,19 @@
         <v>236478</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>206283</v>
+        <v>202464</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>281026</v>
+        <v>272329</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.06876540191854014</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.05998519316060967</v>
+        <v>0.05887461722789231</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.08171953130389488</v>
+        <v>0.07919062761840175</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>207</v>
@@ -3555,19 +3555,19 @@
         <v>173643</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>149490</v>
+        <v>149476</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>199246</v>
+        <v>200270</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.04790317894486529</v>
+        <v>0.04790317894486528</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.04124011258143979</v>
+        <v>0.04123620118047634</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.05496649687084618</v>
+        <v>0.05524884268753005</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>400</v>
@@ -3576,19 +3576,19 @@
         <v>410120</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>366822</v>
+        <v>371932</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>454501</v>
+        <v>459141</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.05805967340097415</v>
+        <v>0.05805967340097414</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.05193002601632113</v>
+        <v>0.05265349759363639</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.06434258422845125</v>
+        <v>0.06499944281701596</v>
       </c>
     </row>
     <row r="44">
@@ -3605,19 +3605,19 @@
         <v>86743</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>67669</v>
+        <v>68414</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>114077</v>
+        <v>110028</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.02522409713151299</v>
+        <v>0.02522409713151298</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01967759618805852</v>
+        <v>0.01989425725080093</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.03317246156528073</v>
+        <v>0.03199496126092754</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>57</v>
@@ -3626,19 +3626,19 @@
         <v>47581</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>35472</v>
+        <v>35214</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>63899</v>
+        <v>62520</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01312615546559842</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.009785635944096508</v>
+        <v>0.009714428374775484</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01762788327812078</v>
+        <v>0.01724753413269511</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>127</v>
@@ -3647,19 +3647,19 @@
         <v>134324</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>110518</v>
+        <v>110401</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>160841</v>
+        <v>161566</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01901587669114747</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.01564578236799528</v>
+        <v>0.01562914200291696</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.02276986927696431</v>
+        <v>0.02287253311580904</v>
       </c>
     </row>
     <row r="45">
